--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,123 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
       </c>
       <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1400</v>
       </c>
       <c r="K8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>600</v>
       </c>
       <c r="G9" s="3">
         <v>600</v>
       </c>
       <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,28 +789,31 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,13 +887,16 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -884,14 +904,14 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -899,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -950,30 +977,33 @@
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
-        <v>900</v>
-      </c>
       <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
@@ -982,22 +1012,25 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,57 +1052,63 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,57 +1436,63 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,45 +1619,49 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
@@ -1579,11 +1669,11 @@
       <c r="G42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1603,25 +1696,28 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1629,28 +1725,31 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>700</v>
       </c>
       <c r="G44" s="3">
+        <v>700</v>
+      </c>
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1664,51 +1763,57 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1300</v>
       </c>
       <c r="H46" s="3">
         <v>1300</v>
       </c>
       <c r="I46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J46" s="3">
         <v>1500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2400</v>
       </c>
       <c r="K46" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,16 +1841,19 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -1760,13 +1868,16 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
         <v>1300</v>
       </c>
       <c r="F54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G54" s="3">
         <v>1500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1600</v>
       </c>
       <c r="H54" s="3">
         <v>1600</v>
       </c>
       <c r="I54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J54" s="3">
         <v>1800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2800</v>
       </c>
       <c r="K54" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1974,19 +2105,19 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1300</v>
       </c>
       <c r="G57" s="3">
         <v>1300</v>
       </c>
       <c r="H57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1300</v>
       </c>
       <c r="J57" s="3">
         <v>1300</v>
@@ -1994,37 +2125,43 @@
       <c r="K57" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2032,57 +2169,63 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2093,10 +2236,10 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -2105,21 +2248,24 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -2127,11 +2273,11 @@
       <c r="G62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E66" s="3">
         <v>1800</v>
       </c>
       <c r="F66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3900</v>
       </c>
       <c r="K66" s="3">
         <v>3900</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-6700</v>
       </c>
       <c r="H72" s="3">
         <v>-6700</v>
       </c>
       <c r="I72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J72" s="3">
         <v>-6900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-6600</v>
       </c>
       <c r="K72" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-500</v>
       </c>
       <c r="F76" s="3">
         <v>-500</v>
       </c>
       <c r="G76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1100</v>
       </c>
       <c r="K76" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,13 +2832,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2870,8 +3091,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
-        <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>800</v>
-      </c>
       <c r="I8" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J8" s="3">
         <v>800</v>
       </c>
       <c r="K8" s="3">
+        <v>900</v>
+      </c>
+      <c r="L8" s="3">
+        <v>800</v>
+      </c>
+      <c r="M8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E9" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
       </c>
       <c r="G9" s="3">
+        <v>500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,25 +924,31 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -916,14 +956,20 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1064,51 +1132,63 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1219,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1439,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1448,51 +1588,63 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1663,101 +1843,119 @@
       <c r="E42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1100</v>
       </c>
       <c r="L44" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1766,77 +1964,89 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1844,22 +2054,28 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
         <v>500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -1871,13 +2087,19 @@
         <v>300</v>
       </c>
       <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>300</v>
+      </c>
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1981,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2356,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2105,191 +2367,227 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1200</v>
       </c>
       <c r="J57" s="3">
         <v>1300</v>
       </c>
       <c r="K57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L57" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,19 +3229,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3094,17 +3536,23 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,16 +3621,22 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3827,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3903,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>900</v>
       </c>
       <c r="L8" s="3">
         <v>800</v>
       </c>
       <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="3">
+        <v>800</v>
+      </c>
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,31 +963,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -962,14 +1001,20 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1138,57 +1205,69 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1304,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1594,57 +1733,69 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
+        <v>600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1849,120 +2028,138 @@
       <c r="G42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>10</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>800</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1100</v>
       </c>
       <c r="N44" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -1970,71 +2167,83 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>400</v>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
+      <c r="F47" s="3">
+        <v>400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
@@ -2048,11 +2257,11 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2060,28 +2269,34 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -2093,13 +2308,19 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
+        <v>300</v>
+      </c>
+      <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2221,14 +2460,14 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,84 +2617,98 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>800</v>
+      </c>
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1200</v>
       </c>
       <c r="L57" s="3">
         <v>1300</v>
       </c>
       <c r="M57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N57" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2443,151 +2716,175 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-8300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,26 +3626,28 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3542,17 +3983,23 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,23 +4080,29 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>900</v>
       </c>
       <c r="N8" s="3">
         <v>800</v>
       </c>
       <c r="O8" s="3">
+        <v>900</v>
+      </c>
+      <c r="P8" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>500</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
       </c>
       <c r="K9" s="3">
+        <v>500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>400</v>
+      </c>
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,37 +1003,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1007,14 +1047,20 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1211,63 +1279,75 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1390,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1739,63 +1879,75 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2034,138 +2214,156 @@
       <c r="I42" s="3">
         <v>0</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>10</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1100</v>
       </c>
       <c r="P44" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2173,66 +2371,78 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,14 +2452,14 @@
       <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3">
-        <v>400</v>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
+      <c r="H47" s="3">
+        <v>400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
@@ -2263,11 +2473,11 @@
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2275,34 +2485,40 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -2314,13 +2530,19 @@
         <v>300</v>
       </c>
       <c r="O48" s="3">
+        <v>300</v>
+      </c>
+      <c r="P48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,14 +2706,14 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F54" s="3">
         <v>6400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2879,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
       </c>
       <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1200</v>
       </c>
       <c r="N57" s="3">
         <v>1300</v>
       </c>
       <c r="O57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P57" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,175 +2940,199 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,43 +3140,49 @@
         <v>1000</v>
       </c>
       <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3642,18 +4040,18 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,14 +4405,14 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3989,17 +4431,23 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,20 +4555,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,49 +751,52 @@
         <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>500</v>
       </c>
       <c r="M8" s="3">
+        <v>500</v>
+      </c>
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1400</v>
       </c>
       <c r="R8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,46 +807,49 @@
         <v>700</v>
       </c>
       <c r="F9" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="G9" s="3">
         <v>1300</v>
       </c>
       <c r="H9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,49 +857,52 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>400</v>
       </c>
       <c r="I10" s="3">
         <v>400</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>-100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1026,32 +1045,32 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,22 +1161,22 @@
         <v>1400</v>
       </c>
       <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
@@ -1159,25 +1185,28 @@
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1214,52 @@
         <v>-700</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1285,19 +1318,22 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,49 +1341,52 @@
         <v>-700</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3">
-        <v>-300</v>
+      <c r="K21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1885,69 +1954,75 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2220,8 +2309,8 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>10</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>10</v>
@@ -2229,11 +2318,11 @@
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>10</v>
@@ -2241,31 +2330,34 @@
       <c r="R42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2274,98 +2366,104 @@
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>800</v>
       </c>
       <c r="H44" s="3">
         <v>800</v>
       </c>
       <c r="I44" s="3">
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>400</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
       </c>
       <c r="L44" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>700</v>
       </c>
       <c r="N44" s="3">
+        <v>700</v>
+      </c>
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2377,72 +2475,78 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1300</v>
       </c>
       <c r="O46" s="3">
         <v>1300</v>
       </c>
       <c r="P46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>2400</v>
       </c>
       <c r="R46" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2458,11 +2562,11 @@
       <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3">
         <v>400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
@@ -2479,8 +2583,8 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2491,37 +2595,40 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E48" s="3">
         <v>2000</v>
       </c>
       <c r="F48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>2100</v>
       </c>
       <c r="H48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I48" s="3">
         <v>1500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
         <v>500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
@@ -2536,13 +2643,16 @@
         <v>300</v>
       </c>
       <c r="Q48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2712,11 +2831,11 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1300</v>
       </c>
       <c r="L54" s="3">
         <v>1300</v>
       </c>
       <c r="M54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N54" s="3">
         <v>1500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1600</v>
       </c>
       <c r="O54" s="3">
         <v>1600</v>
       </c>
       <c r="P54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2800</v>
       </c>
       <c r="R54" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2890,40 +3020,40 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
+        <v>800</v>
+      </c>
+      <c r="M57" s="3">
         <v>1100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1300</v>
       </c>
       <c r="N57" s="3">
         <v>1300</v>
       </c>
       <c r="O57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P57" s="3">
         <v>1200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1300</v>
       </c>
       <c r="Q57" s="3">
         <v>1300</v>
@@ -2931,22 +3061,25 @@
       <c r="R57" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2955,134 +3088,143 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1800</v>
       </c>
       <c r="F60" s="3">
         <v>1800</v>
       </c>
       <c r="G60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H60" s="3">
         <v>2000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1600</v>
       </c>
       <c r="I60" s="3">
         <v>1600</v>
       </c>
       <c r="J60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,10 +3235,10 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
-      </c>
-      <c r="G61" s="3">
-        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -3105,7 +3247,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3114,10 +3256,10 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -3126,18 +3268,21 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
@@ -3146,13 +3291,13 @@
         <v>1000</v>
       </c>
       <c r="G62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>1200</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3160,8 +3305,8 @@
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>10</v>
@@ -3169,11 +3314,11 @@
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
+      <c r="O62" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>10</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1800</v>
       </c>
       <c r="L66" s="3">
         <v>1800</v>
       </c>
       <c r="M66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3900</v>
       </c>
       <c r="R66" s="3">
         <v>3900</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-8500</v>
       </c>
       <c r="H72" s="3">
         <v>-8500</v>
       </c>
       <c r="I72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-8300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-6700</v>
       </c>
       <c r="O72" s="3">
         <v>-6700</v>
       </c>
       <c r="P72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-6900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-6600</v>
       </c>
       <c r="R72" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>100</v>
       </c>
       <c r="J76" s="3">
         <v>100</v>
       </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-500</v>
       </c>
       <c r="N76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1100</v>
       </c>
       <c r="R76" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4046,14 +4244,14 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>10</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-500</v>
       </c>
       <c r="K89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4411,11 +4631,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4437,8 +4657,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4561,17 +4790,17 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4828,46 +5073,49 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,157 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>700</v>
       </c>
       <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>700</v>
+      </c>
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>900</v>
       </c>
       <c r="Q8" s="3">
         <v>800</v>
       </c>
       <c r="R8" s="3">
+        <v>900</v>
+      </c>
+      <c r="S8" s="3">
+        <v>800</v>
+      </c>
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>700</v>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="3">
         <v>700</v>
@@ -810,99 +824,111 @@
         <v>700</v>
       </c>
       <c r="G9" s="3">
+        <v>700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>700</v>
+      </c>
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>500</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
       </c>
       <c r="N9" s="3">
+        <v>500</v>
+      </c>
+      <c r="O9" s="3">
+        <v>400</v>
+      </c>
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,46 +1062,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1075,14 +1115,20 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
       <c r="P17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1345,15 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1321,72 +1389,84 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +2049,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1957,72 +2097,84 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,66 +2399,74 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
+        <v>600</v>
+      </c>
+      <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2312,135 +2492,153 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>10</v>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>10</v>
+      <c r="R42" s="3">
+        <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E44" s="3">
         <v>1300</v>
       </c>
       <c r="F44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H44" s="3">
         <v>1200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1100</v>
       </c>
       <c r="S44" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U44" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,29 +2646,29 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2478,22 +2676,28 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,52 +2705,58 @@
         <v>2200</v>
       </c>
       <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G46" s="3">
         <v>3000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2565,14 +2775,14 @@
       <c r="H47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I47" s="3">
-        <v>400</v>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
+      <c r="K47" s="3">
+        <v>400</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
@@ -2586,11 +2796,11 @@
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2598,43 +2808,49 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
@@ -2646,13 +2862,19 @@
         <v>300</v>
       </c>
       <c r="R48" s="3">
+        <v>300</v>
+      </c>
+      <c r="S48" s="3">
+        <v>300</v>
+      </c>
+      <c r="T48" s="3">
         <v>400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +3044,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2834,14 +3074,14 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1200</v>
       </c>
       <c r="Q57" s="3">
         <v>1300</v>
       </c>
       <c r="R57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S57" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,264 +3341,294 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
       </c>
       <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>700</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
       </c>
       <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
-        <v>1000</v>
-      </c>
       <c r="F62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
       </c>
       <c r="H62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4247,18 +4645,18 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4634,14 +5076,14 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -4660,17 +5102,23 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4793,20 +5253,20 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -759,7 +759,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>700</v>
@@ -768,10 +768,10 @@
         <v>700</v>
       </c>
       <c r="H8" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="I8" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="J8" s="3">
         <v>2100</v>
@@ -814,11 +814,11 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
+      <c r="D9" s="3">
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="3">
         <v>700</v>
@@ -827,10 +827,10 @@
         <v>700</v>
       </c>
       <c r="H9" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="I9" s="3">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="J9" s="3">
         <v>1300</v>
@@ -873,11 +873,11 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>700</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>1000</v>
+        <v>-300</v>
       </c>
       <c r="J10" s="3">
         <v>800</v>
@@ -1211,11 +1211,11 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F17" s="3">
         <v>1400</v>
@@ -1224,10 +1224,10 @@
         <v>1400</v>
       </c>
       <c r="H17" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="I17" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="J17" s="3">
         <v>2100</v>
@@ -1270,11 +1270,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>-800</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
         <v>-700</v>
@@ -1283,7 +1283,7 @@
         <v>-700</v>
       </c>
       <c r="H18" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I18" s="3">
         <v>400</v>
@@ -1352,8 +1352,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1411,8 +1411,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>-800</v>
       </c>
       <c r="E21" s="3">
         <v>-1000</v>
@@ -1424,7 +1424,7 @@
         <v>-700</v>
       </c>
       <c r="H21" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>400</v>
@@ -1529,8 +1529,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
+      <c r="D23" s="3">
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
         <v>-1100</v>
@@ -1545,7 +1545,7 @@
         <v>-500</v>
       </c>
       <c r="I23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1706,8 +1706,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
         <v>-1100</v>
@@ -1722,7 +1722,7 @@
         <v>-500</v>
       </c>
       <c r="I26" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1765,8 +1765,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
         <v>-1100</v>
@@ -1781,7 +1781,7 @@
         <v>-500</v>
       </c>
       <c r="I27" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1884,25 +1884,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2060,8 +2060,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2119,8 +2119,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>300</v>
       </c>
       <c r="E33" s="3">
         <v>-1100</v>
@@ -2237,8 +2237,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>300</v>
       </c>
       <c r="E35" s="3">
         <v>-1100</v>
@@ -2525,7 +2525,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2760,8 +2760,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
+      <c r="D47" s="3">
+        <v>600</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
@@ -3055,8 +3055,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>10</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -4545,8 +4545,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>300</v>
       </c>
       <c r="E81" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,170 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
       </c>
       <c r="F8" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>700</v>
       </c>
       <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
         <v>1100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2100</v>
       </c>
       <c r="J8" s="3">
         <v>2100</v>
       </c>
       <c r="K8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>500</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
       </c>
       <c r="P8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1400</v>
       </c>
       <c r="U8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>700</v>
       </c>
       <c r="G9" s="3">
         <v>700</v>
@@ -830,105 +837,111 @@
         <v>1200</v>
       </c>
       <c r="I9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-700</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>400</v>
       </c>
       <c r="L10" s="3">
         <v>400</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1079,14 +1099,14 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>-100</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="H14" s="3">
+        <v>-100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1094,32 +1114,32 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,40 +1232,41 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1400</v>
       </c>
       <c r="G17" s="3">
         <v>1400</v>
       </c>
       <c r="H17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
@@ -1248,84 +1275,90 @@
         <v>800</v>
       </c>
       <c r="P17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-700</v>
       </c>
       <c r="G18" s="3">
         <v>-700</v>
       </c>
       <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,78 +1429,84 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-700</v>
       </c>
       <c r="G21" s="3">
         <v>-700</v>
       </c>
       <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="3">
-        <v>-300</v>
+      <c r="N21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,35 +1936,38 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>1100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2103,78 +2173,84 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,75 +2487,79 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2498,8 +2588,8 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>10</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>10</v>
@@ -2507,11 +2597,11 @@
       <c r="Q42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>10</v>
@@ -2519,13 +2609,16 @@
       <c r="U42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2534,25 +2627,25 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>500</v>
       </c>
       <c r="L43" s="3">
         <v>500</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
@@ -2561,25 +2654,28 @@
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2590,55 +2686,58 @@
         <v>1300</v>
       </c>
       <c r="F44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>800</v>
       </c>
       <c r="K44" s="3">
         <v>800</v>
       </c>
       <c r="L44" s="3">
+        <v>800</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>400</v>
       </c>
       <c r="O44" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>700</v>
       </c>
       <c r="Q44" s="3">
+        <v>700</v>
+      </c>
+      <c r="R44" s="3">
         <v>900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2646,31 +2745,31 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2682,89 +2781,95 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1300</v>
       </c>
       <c r="R46" s="3">
         <v>1300</v>
       </c>
       <c r="S46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T46" s="3">
         <v>1500</v>
-      </c>
-      <c r="T46" s="3">
-        <v>2400</v>
       </c>
       <c r="U46" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
+      <c r="E47" s="3">
+        <v>600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -2781,11 +2886,11 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3">
         <v>400</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>10</v>
@@ -2802,8 +2907,8 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2814,46 +2919,49 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1900</v>
       </c>
       <c r="F48" s="3">
         <v>1900</v>
       </c>
       <c r="G48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H48" s="3">
         <v>2000</v>
       </c>
       <c r="I48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J48" s="3">
         <v>2100</v>
       </c>
       <c r="K48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L48" s="3">
         <v>1500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
@@ -2868,13 +2976,16 @@
         <v>300</v>
       </c>
       <c r="T48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3080,11 +3200,11 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1300</v>
       </c>
       <c r="O54" s="3">
         <v>1300</v>
       </c>
       <c r="P54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1600</v>
       </c>
       <c r="R54" s="3">
         <v>1600</v>
       </c>
       <c r="S54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T54" s="3">
         <v>1800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2800</v>
       </c>
       <c r="U54" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,16 +3403,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
@@ -3291,40 +3422,40 @@
         <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
+        <v>800</v>
+      </c>
+      <c r="P57" s="3">
         <v>1100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1300</v>
       </c>
       <c r="Q57" s="3">
         <v>1300</v>
       </c>
       <c r="R57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S57" s="3">
         <v>1200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1300</v>
       </c>
       <c r="T57" s="3">
         <v>1300</v>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3347,16 +3481,16 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3365,34 +3499,37 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3400,128 +3537,134 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
       </c>
       <c r="O59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
       <c r="Q59" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>700</v>
       </c>
       <c r="S59" s="3">
+        <v>700</v>
+      </c>
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1800</v>
       </c>
       <c r="I60" s="3">
         <v>1800</v>
       </c>
       <c r="J60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1600</v>
       </c>
       <c r="L60" s="3">
         <v>1600</v>
       </c>
       <c r="M60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -3530,10 +3673,10 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -3542,7 +3685,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3551,10 +3694,10 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>200</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -3563,13 +3706,16 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3577,13 +3723,13 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
@@ -3592,13 +3738,13 @@
         <v>1000</v>
       </c>
       <c r="J62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3606,8 +3752,8 @@
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
@@ -3615,11 +3761,11 @@
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
+      <c r="R62" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>10</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1800</v>
       </c>
       <c r="O66" s="3">
         <v>1800</v>
       </c>
       <c r="P66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3900</v>
       </c>
       <c r="U66" s="3">
         <v>3900</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-8500</v>
       </c>
       <c r="K72" s="3">
         <v>-8500</v>
       </c>
       <c r="L72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-6700</v>
       </c>
       <c r="R72" s="3">
         <v>-6700</v>
       </c>
       <c r="S72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="T72" s="3">
         <v>-6900</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-6600</v>
       </c>
       <c r="U72" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>100</v>
       </c>
       <c r="M76" s="3">
         <v>100</v>
       </c>
       <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-500</v>
       </c>
       <c r="P76" s="3">
         <v>-500</v>
       </c>
       <c r="Q76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1100</v>
       </c>
       <c r="U76" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4651,14 +4850,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>10</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4985,58 +5202,61 @@
         <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-500</v>
       </c>
       <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5082,11 +5303,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5108,8 +5329,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>10</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5259,17 +5489,17 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,20 +5796,23 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5574,46 +5820,49 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,240 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>800</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>700</v>
       </c>
       <c r="H8" s="3">
         <v>500</v>
       </c>
       <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>800</v>
-      </c>
-      <c r="S8" s="3">
-        <v>900</v>
       </c>
       <c r="T8" s="3">
         <v>800</v>
       </c>
       <c r="U8" s="3">
+        <v>900</v>
+      </c>
+      <c r="V8" s="3">
+        <v>800</v>
+      </c>
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>700</v>
       </c>
       <c r="H9" s="3">
         <v>1200</v>
       </c>
       <c r="I9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>500</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
       </c>
       <c r="Q9" s="3">
+        <v>500</v>
+      </c>
+      <c r="R9" s="3">
+        <v>400</v>
+      </c>
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -890,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -899,49 +918,55 @@
         <v>-700</v>
       </c>
       <c r="I10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1053,14 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,55 +1121,61 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1144,14 +1183,20 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O17" s="3">
         <v>1400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
       <c r="Q17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="R17" s="3">
         <v>800</v>
       </c>
       <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="3">
+        <v>800</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,16 +1446,18 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1432,81 +1499,93 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-500</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
         <v>-800</v>
       </c>
       <c r="F21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-800</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
       </c>
       <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,70 +1646,82 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-500</v>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E23" s="3">
         <v>-800</v>
       </c>
       <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-800</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-500</v>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
       </c>
       <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-800</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-500</v>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="3">
         <v>-800</v>
       </c>
       <c r="F27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-800</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,41 +2054,47 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>1100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>100</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>100</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,16 +2258,22 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2176,81 +2315,93 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>600</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
-      </c>
-      <c r="S41" s="3">
-        <v>200</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2561,11 +2740,11 @@
       <c r="E42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2591,29 +2770,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>10</v>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>10</v>
+      <c r="U42" s="3">
+        <v>0</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2621,162 +2806,174 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E44" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F44" s="3">
         <v>1300</v>
       </c>
       <c r="G44" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H44" s="3">
         <v>1300</v>
       </c>
       <c r="I44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>600</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1100</v>
       </c>
       <c r="V44" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2784,84 +2981,96 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2000</v>
       </c>
       <c r="G46" s="3">
         <v>2200</v>
       </c>
       <c r="H46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2871,11 +3080,11 @@
       <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
+      <c r="F47" s="3">
+        <v>600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>600</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -2889,14 +3098,14 @@
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3">
-        <v>400</v>
+      <c r="L47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
+      <c r="N47" s="3">
+        <v>400</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>10</v>
@@ -2910,11 +3119,11 @@
       <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2922,52 +3131,58 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
@@ -2979,13 +3194,19 @@
         <v>300</v>
       </c>
       <c r="U48" s="3">
+        <v>300</v>
+      </c>
+      <c r="V48" s="3">
+        <v>300</v>
+      </c>
+      <c r="W48" s="3">
         <v>400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,13 +3403,19 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3203,14 +3442,14 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -3232,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1000</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
+        <v>800</v>
+      </c>
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1200</v>
       </c>
       <c r="T57" s="3">
         <v>1300</v>
       </c>
       <c r="U57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="V57" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X57" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3484,52 +3751,58 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3540,244 +3813,268 @@
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
       </c>
       <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
       </c>
       <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
+        <v>100</v>
+      </c>
+      <c r="W61" s="3">
         <v>200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>700</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>1000</v>
       </c>
       <c r="K62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>10</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-6600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4853,18 +5250,18 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="P83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5306,14 +5747,14 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5332,17 +5773,23 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>10</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5492,20 +5951,20 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5527,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5935,54 +6438,60 @@
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-200</v>
       </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,152 +774,158 @@
         <v>700</v>
       </c>
       <c r="E8" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
       </c>
       <c r="G8" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H8" s="3">
         <v>500</v>
       </c>
       <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2100</v>
       </c>
       <c r="M8" s="3">
         <v>2100</v>
       </c>
       <c r="N8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>500</v>
       </c>
       <c r="R8" s="3">
         <v>500</v>
       </c>
       <c r="S8" s="3">
+        <v>500</v>
+      </c>
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1400</v>
       </c>
       <c r="X8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1200</v>
       </c>
       <c r="K9" s="3">
         <v>1200</v>
       </c>
       <c r="L9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>-700</v>
@@ -924,49 +934,52 @@
         <v>-700</v>
       </c>
       <c r="K10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,19 +1144,22 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1147,14 +1167,14 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>-100</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>-100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1162,32 +1182,32 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,40 +1322,40 @@
         <v>10</v>
       </c>
       <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
@@ -1337,25 +1364,28 @@
         <v>800</v>
       </c>
       <c r="S17" s="3">
+        <v>800</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1393,70 @@
         <v>10</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,11 +1491,11 @@
         <v>10</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1505,19 +1539,22 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1562,70 @@
         <v>10</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1692,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,67 +1704,70 @@
         <v>10</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,67 +1917,70 @@
         <v>10</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,67 +1988,70 @@
         <v>10</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,44 +2118,47 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>1100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,11 +2343,11 @@
         <v>10</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2321,19 +2391,22 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,67 +2414,70 @@
         <v>10</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,140 +2556,146 @@
         <v>10</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
-      </c>
-      <c r="T41" s="3">
-        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
-      </c>
-      <c r="W41" s="3">
-        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2746,8 +2836,8 @@
       <c r="G42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2776,8 +2866,8 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>10</v>
+      <c r="R42" s="3">
+        <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>10</v>
@@ -2785,11 +2875,11 @@
       <c r="T42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>10</v>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2812,7 +2905,7 @@
         <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -2821,25 +2914,25 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>500</v>
       </c>
       <c r="O43" s="3">
         <v>500</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
@@ -2848,36 +2941,39 @@
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="3">
         <v>1100</v>
       </c>
       <c r="F44" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G44" s="3">
         <v>1300</v>
@@ -2886,96 +2982,99 @@
         <v>1300</v>
       </c>
       <c r="I44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>800</v>
       </c>
       <c r="N44" s="3">
         <v>800</v>
       </c>
       <c r="O44" s="3">
+        <v>800</v>
+      </c>
+      <c r="P44" s="3">
         <v>300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
       </c>
       <c r="R44" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="S44" s="3">
         <v>700</v>
       </c>
       <c r="T44" s="3">
+        <v>700</v>
+      </c>
+      <c r="U44" s="3">
         <v>900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2987,90 +3086,96 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1300</v>
       </c>
       <c r="U46" s="3">
         <v>1300</v>
       </c>
       <c r="V46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W46" s="3">
         <v>1500</v>
-      </c>
-      <c r="W46" s="3">
-        <v>2400</v>
       </c>
       <c r="X46" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3086,8 +3191,8 @@
       <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
+      <c r="H47" s="3">
+        <v>600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
@@ -3104,11 +3209,11 @@
       <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" s="3">
         <v>400</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
@@ -3125,8 +3230,8 @@
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3137,55 +3242,58 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1600</v>
       </c>
       <c r="F48" s="3">
         <v>1600</v>
       </c>
       <c r="G48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H48" s="3">
         <v>1700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1900</v>
       </c>
       <c r="I48" s="3">
         <v>1900</v>
       </c>
       <c r="J48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K48" s="3">
         <v>2000</v>
       </c>
       <c r="L48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M48" s="3">
         <v>2100</v>
       </c>
       <c r="N48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O48" s="3">
         <v>1500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>400</v>
       </c>
       <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
         <v>500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>300</v>
@@ -3200,13 +3308,16 @@
         <v>300</v>
       </c>
       <c r="W48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,16 +3526,19 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3448,11 +3568,11 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1300</v>
       </c>
       <c r="R54" s="3">
         <v>1300</v>
       </c>
       <c r="S54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T54" s="3">
         <v>1500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1600</v>
       </c>
       <c r="U54" s="3">
         <v>1600</v>
       </c>
       <c r="V54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W54" s="3">
         <v>1800</v>
-      </c>
-      <c r="W54" s="3">
-        <v>2800</v>
       </c>
       <c r="X54" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3795,26 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
@@ -3692,40 +3823,40 @@
         <v>700</v>
       </c>
       <c r="K57" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>900</v>
       </c>
       <c r="M57" s="3">
+        <v>900</v>
+      </c>
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
       <c r="R57" s="3">
+        <v>800</v>
+      </c>
+      <c r="S57" s="3">
         <v>1100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1300</v>
       </c>
       <c r="T57" s="3">
         <v>1300</v>
       </c>
       <c r="U57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V57" s="3">
         <v>1200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1300</v>
       </c>
       <c r="W57" s="3">
         <v>1300</v>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3757,16 +3891,16 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3775,34 +3909,37 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3819,126 +3956,132 @@
         <v>500</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
       </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
       <c r="T59" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>700</v>
       </c>
       <c r="V59" s="3">
+        <v>700</v>
+      </c>
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1800</v>
       </c>
       <c r="L60" s="3">
         <v>1800</v>
       </c>
       <c r="M60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N60" s="3">
         <v>2000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1600</v>
       </c>
       <c r="O60" s="3">
         <v>1600</v>
       </c>
       <c r="P60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,16 +4092,16 @@
         <v>400</v>
       </c>
       <c r="F61" s="3">
+        <v>400</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -3967,10 +4110,10 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
-      </c>
-      <c r="M61" s="3">
-        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
@@ -3979,7 +4122,7 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -3988,10 +4131,10 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
         <v>200</v>
-      </c>
-      <c r="T61" s="3">
-        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
@@ -4000,36 +4143,39 @@
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
       </c>
       <c r="F62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G62" s="3">
         <v>800</v>
       </c>
       <c r="H62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I62" s="3">
         <v>900</v>
       </c>
       <c r="J62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K62" s="3">
         <v>1000</v>
@@ -4038,13 +4184,13 @@
         <v>1000</v>
       </c>
       <c r="M62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N62" s="3">
         <v>1200</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4052,8 +4198,8 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>10</v>
@@ -4061,11 +4207,11 @@
       <c r="T62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3" t="s">
+      <c r="U62" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>10</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E66" s="3">
         <v>2500</v>
       </c>
       <c r="F66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1800</v>
       </c>
       <c r="R66" s="3">
         <v>1800</v>
       </c>
       <c r="S66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
-      </c>
-      <c r="W66" s="3">
-        <v>3900</v>
       </c>
       <c r="X66" s="3">
         <v>3900</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-8500</v>
       </c>
       <c r="N72" s="3">
         <v>-8500</v>
       </c>
       <c r="O72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="P72" s="3">
         <v>-8300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-6700</v>
       </c>
       <c r="U72" s="3">
         <v>-6700</v>
       </c>
       <c r="V72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="W72" s="3">
         <v>-6900</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-6600</v>
       </c>
       <c r="X72" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>100</v>
       </c>
       <c r="P76" s="3">
         <v>100</v>
       </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-500</v>
       </c>
       <c r="S76" s="3">
         <v>-500</v>
       </c>
       <c r="T76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U76" s="3">
         <v>-600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-1100</v>
       </c>
       <c r="X76" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,67 +5328,70 @@
         <v>10</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5256,14 +5455,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>10</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-500</v>
       </c>
       <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5753,11 +5974,11 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -5779,8 +6000,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>10</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5957,17 +6187,17 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,29 +6533,32 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6320,46 +6566,49 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMGX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>NMGX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,158 +781,164 @@
         <v>700</v>
       </c>
       <c r="F8" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G8" s="3">
         <v>800</v>
       </c>
       <c r="H8" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="I8" s="3">
         <v>500</v>
       </c>
       <c r="J8" s="3">
+        <v>500</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2100</v>
       </c>
       <c r="N8" s="3">
         <v>2100</v>
       </c>
       <c r="O8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>500</v>
       </c>
       <c r="S8" s="3">
         <v>500</v>
       </c>
       <c r="T8" s="3">
+        <v>500</v>
+      </c>
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1400</v>
       </c>
       <c r="Y8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1200</v>
       </c>
       <c r="L9" s="3">
         <v>1200</v>
       </c>
       <c r="M9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>-700</v>
@@ -937,49 +947,52 @@
         <v>-700</v>
       </c>
       <c r="L10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
-      </c>
-      <c r="O10" s="3">
-        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1158,11 +1178,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1170,14 +1190,14 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>-100</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>-100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1185,32 +1205,32 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1339,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1325,40 +1352,40 @@
         <v>1400</v>
       </c>
       <c r="F17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>800</v>
       </c>
       <c r="R17" s="3">
         <v>800</v>
@@ -1367,25 +1394,28 @@
         <v>800</v>
       </c>
       <c r="T17" s="3">
+        <v>800</v>
+      </c>
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1396,67 +1426,70 @@
         <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1494,11 +1528,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1542,19 +1576,22 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1565,67 +1602,70 @@
         <v>-600</v>
       </c>
       <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R21" s="3">
-        <v>-300</v>
+      <c r="R21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,8 +1735,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1707,67 +1750,70 @@
         <v>-700</v>
       </c>
       <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +1957,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1920,67 +1972,70 @@
         <v>-700</v>
       </c>
       <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1991,67 +2046,70 @@
         <v>-700</v>
       </c>
       <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,47 +2179,50 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>1100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,11 +2416,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2394,19 +2464,22 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2417,67 +2490,70 @@
         <v>-700</v>
       </c>
       <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2623,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2559,143 +2638,149 @@
         <v>-700</v>
       </c>
       <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
-      </c>
-      <c r="U41" s="3">
-        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
-      </c>
-      <c r="X41" s="3">
-        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2839,8 +2929,8 @@
       <c r="H42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2869,8 +2959,8 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>10</v>
+      <c r="S42" s="3">
+        <v>0</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>10</v>
@@ -2878,11 +2968,11 @@
       <c r="U42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>10</v>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2908,7 +3001,7 @@
         <v>400</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -2917,25 +3010,25 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>500</v>
       </c>
       <c r="P43" s="3">
         <v>500</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
@@ -2944,25 +3037,28 @@
         <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2970,13 +3066,13 @@
         <v>1000</v>
       </c>
       <c r="E44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="3">
         <v>1100</v>
       </c>
       <c r="G44" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="H44" s="3">
         <v>1300</v>
@@ -2985,99 +3081,102 @@
         <v>1300</v>
       </c>
       <c r="J44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>800</v>
       </c>
       <c r="O44" s="3">
         <v>800</v>
       </c>
       <c r="P44" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q44" s="3">
         <v>300</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>400</v>
       </c>
       <c r="R44" s="3">
         <v>400</v>
       </c>
       <c r="S44" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T44" s="3">
         <v>700</v>
       </c>
       <c r="U44" s="3">
+        <v>700</v>
+      </c>
+      <c r="V44" s="3">
         <v>900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3089,93 +3188,99 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
-      </c>
-      <c r="V45" s="3">
-        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
       </c>
       <c r="X45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1300</v>
       </c>
       <c r="V46" s="3">
         <v>1300</v>
       </c>
       <c r="W46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X46" s="3">
         <v>1500</v>
-      </c>
-      <c r="X46" s="3">
-        <v>2400</v>
       </c>
       <c r="Y46" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3194,8 +3299,8 @@
       <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
+      <c r="I47" s="3">
+        <v>600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
@@ -3212,11 +3317,11 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="3">
         <v>400</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>10</v>
@@ -3233,8 +3338,8 @@
       <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3245,58 +3350,61 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1600</v>
       </c>
       <c r="G48" s="3">
         <v>1600</v>
       </c>
       <c r="H48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I48" s="3">
         <v>1700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1900</v>
       </c>
       <c r="J48" s="3">
         <v>1900</v>
       </c>
       <c r="K48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L48" s="3">
         <v>2000</v>
       </c>
       <c r="M48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N48" s="3">
         <v>2100</v>
       </c>
       <c r="O48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P48" s="3">
         <v>1500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
       </c>
       <c r="R48" s="3">
+        <v>400</v>
+      </c>
+      <c r="S48" s="3">
         <v>500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>300</v>
@@ -3311,13 +3419,16 @@
         <v>300</v>
       </c>
       <c r="X48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3540,8 +3660,8 @@
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3571,11 +3691,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3794,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3680,70 +3806,73 @@
         <v>3500</v>
       </c>
       <c r="E54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F54" s="3">
         <v>3700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1300</v>
       </c>
       <c r="S54" s="3">
         <v>1300</v>
       </c>
       <c r="T54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U54" s="3">
         <v>1500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1600</v>
       </c>
       <c r="V54" s="3">
         <v>1600</v>
       </c>
       <c r="W54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X54" s="3">
         <v>1800</v>
-      </c>
-      <c r="X54" s="3">
-        <v>2800</v>
       </c>
       <c r="Y54" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,19 +3936,19 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
@@ -3826,40 +3957,40 @@
         <v>700</v>
       </c>
       <c r="L57" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
+        <v>900</v>
+      </c>
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>800</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
       <c r="S57" s="3">
+        <v>800</v>
+      </c>
+      <c r="T57" s="3">
         <v>1100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1300</v>
       </c>
       <c r="U57" s="3">
         <v>1300</v>
       </c>
       <c r="V57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W57" s="3">
         <v>1200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1300</v>
       </c>
       <c r="X57" s="3">
         <v>1300</v>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3894,16 +4028,16 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3912,39 +4046,42 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
@@ -3959,129 +4096,135 @@
         <v>500</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
       <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>600</v>
       </c>
       <c r="R59" s="3">
         <v>600</v>
       </c>
       <c r="S59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T59" s="3">
         <v>500</v>
       </c>
       <c r="U59" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>700</v>
       </c>
       <c r="W59" s="3">
+        <v>700</v>
+      </c>
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1800</v>
       </c>
       <c r="M60" s="3">
         <v>1800</v>
       </c>
       <c r="N60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O60" s="3">
         <v>2000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1600</v>
       </c>
       <c r="P60" s="3">
         <v>1600</v>
       </c>
       <c r="Q60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4095,16 +4238,16 @@
         <v>400</v>
       </c>
       <c r="G61" s="3">
+        <v>400</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -4113,10 +4256,10 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
-      </c>
-      <c r="N61" s="3">
-        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
@@ -4125,7 +4268,7 @@
         <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -4134,10 +4277,10 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
         <v>200</v>
-      </c>
-      <c r="U61" s="3">
-        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
@@ -4146,13 +4289,16 @@
         <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4160,25 +4306,25 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>700</v>
       </c>
       <c r="G62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
       </c>
       <c r="I62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J62" s="3">
         <v>900</v>
       </c>
       <c r="K62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L62" s="3">
         <v>1000</v>
@@ -4187,13 +4333,13 @@
         <v>1000</v>
       </c>
       <c r="N62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="O62" s="3">
         <v>1200</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -4201,8 +4347,8 @@
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>10</v>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>10</v>
@@ -4210,11 +4356,11 @@
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3" t="s">
+      <c r="V62" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>10</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2500</v>
       </c>
       <c r="F66" s="3">
         <v>2500</v>
       </c>
       <c r="G66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1800</v>
       </c>
       <c r="S66" s="3">
         <v>1800</v>
       </c>
       <c r="T66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3200</v>
-      </c>
-      <c r="X66" s="3">
-        <v>3900</v>
       </c>
       <c r="Y66" s="3">
         <v>3900</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-8500</v>
       </c>
       <c r="O72" s="3">
         <v>-8500</v>
       </c>
       <c r="P72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7000</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-6700</v>
       </c>
       <c r="V72" s="3">
         <v>-6700</v>
       </c>
       <c r="W72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="X72" s="3">
         <v>-6900</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-6600</v>
       </c>
       <c r="Y72" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>100</v>
       </c>
       <c r="Q76" s="3">
         <v>100</v>
       </c>
       <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-500</v>
       </c>
       <c r="T76" s="3">
         <v>-500</v>
       </c>
       <c r="U76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-1100</v>
       </c>
       <c r="Y76" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5432,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5331,67 +5526,70 @@
         <v>-700</v>
       </c>
       <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5458,14 +5657,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>10</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
       <c r="I89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-500</v>
       </c>
       <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5977,11 +6198,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -6003,8 +6224,8 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>10</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>10</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6190,17 +6420,17 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6545,23 +6791,23 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6569,46 +6815,49 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
